--- a/analysis/participant_extractedmetrics/participant 310.xlsx
+++ b/analysis/participant_extractedmetrics/participant 310.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="70">
   <si>
     <t/>
   </si>
@@ -111,6 +111,9 @@
     <t>post gemini</t>
   </si>
   <si>
+    <t>pre</t>
+  </si>
+  <si>
     <t>arg</t>
   </si>
   <si>
@@ -132,7 +135,7 @@
     <t>return</t>
   </si>
   <si>
-    <t>postgem</t>
+    <t>post</t>
   </si>
   <si>
     <t>arg6</t>
@@ -221,36 +224,12 @@
   <si>
     <t>vars</t>
   </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>Fixation based metrics,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,</t>
-  </si>
-  <si>
-    <t>Revisit count,1,NaN,NaN,NaN,0,NaN,12,3,NaN,10,1,NaN,2,1,NaN,NaN,0,9,0,1,NaN,1,2,NaN,2,NaN,15,NaN,NaN,NaN,NaN,NaN,NaN,NaN,NaN,NaN,NaN,0,NaN,NaN,0,</t>
-  </si>
-  <si>
-    <t>Fixation count,2,NaN,NaN,NaN,1,NaN,24,6,NaN,17,3,NaN,3,91,NaN,NaN,1,16,1,3,NaN,3,3,NaN,5,NaN,74,NaN,NaN,NaN,NaN,NaN,NaN,NaN,NaN,NaN,NaN,1,NaN,NaN,1,</t>
-  </si>
-  <si>
-    <t>Dwell time (ms),966.96,NaN,NaN,NaN,116.8,NaN,7432.35,2610.44,NaN,4821.04,1234.62,NaN,784.07,19746.37,NaN,NaN,116.8,4321.26,884.24,1851.34,NaN,1234.62,750.73,NaN,2435.39,NaN,33034.41,NaN,NaN,NaN,NaN,NaN,NaN,NaN,NaN,NaN,NaN,300.27,NaN,NaN,884.24,</t>
-  </si>
-  <si>
-    <t>Dwell time (%),0.96,NaN,NaN,NaN,0.12,NaN,7.36,2.59,NaN,4.78,1.22,NaN,0.78,19.57,NaN,NaN,0.12,4.28,0.88,1.83,NaN,1.22,0.74,NaN,2.41,NaN,32.73,NaN,NaN,NaN,NaN,NaN,NaN,NaN,NaN,NaN,NaN,0.3,NaN,NaN,0.88,</t>
-  </si>
-  <si>
-    <t>Fixation duration (ms),483.48,NaN,NaN,NaN,116.8,NaN,309.68,435.07,NaN,283.59,411.54,NaN,261.36,216.99,NaN,NaN,116.8,270.08,884.24,617.11,NaN,411.54,250.24,NaN,487.08,NaN,446.41,NaN,NaN,NaN,NaN,NaN,NaN,NaN,NaN,NaN,NaN,300.27,NaN,NaN,884.24,</t>
-  </si>
-  <si>
-    <t>First fixation duration (ms),499.78,NaN,NaN,NaN,116.8,NaN,150.22,467.32,NaN,499.78,200.18,NaN,300.27,559.1,NaN,NaN,116.8,183.5,884.24,467.32,NaN,200.18,183.5,NaN,817.55,NaN,300.37,NaN,NaN,NaN,NaN,NaN,NaN,NaN,NaN,NaN,NaN,300.27,NaN,NaN,884.24,</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -261,6 +240,11 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -277,12 +261,24 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1693,7 +1689,729 @@
         <v>0</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3"/>
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="3"/>
+      <c r="AO23" s="3"/>
+      <c r="AP23" s="3"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3"/>
+      <c r="AO24" s="3"/>
+      <c r="AP24" s="3"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D25" s="4">
+        <v>35.0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>31.0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="I25" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" s="4">
+        <v>23.0</v>
+      </c>
+      <c r="M25" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="N25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="O25" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="P25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S25" s="4">
+        <v>28.0</v>
+      </c>
+      <c r="T25" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="U25" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="V25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
+      <c r="AP25" s="3"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D26" s="4">
+        <v>102.0</v>
+      </c>
+      <c r="E26" s="4">
+        <v>56.0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>23.0</v>
+      </c>
+      <c r="G26" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>23.0</v>
+      </c>
+      <c r="I26" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L26" s="4">
+        <v>207.0</v>
+      </c>
+      <c r="M26" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="N26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O26" s="4">
+        <v>21.0</v>
+      </c>
+      <c r="P26" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S26" s="4">
+        <v>79.0</v>
+      </c>
+      <c r="T26" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="U26" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
+      <c r="AO26" s="3"/>
+      <c r="AP26" s="3"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1156.11</v>
+      </c>
+      <c r="D27" s="4">
+        <v>28794.69</v>
+      </c>
+      <c r="E27" s="4">
+        <v>15343.57</v>
+      </c>
+      <c r="F27" s="4">
+        <v>7705.3</v>
+      </c>
+      <c r="G27" s="4">
+        <v>4673.68</v>
+      </c>
+      <c r="H27" s="4">
+        <v>6102.3</v>
+      </c>
+      <c r="I27" s="4">
+        <v>4665.48</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L27" s="4">
+        <v>54442.65</v>
+      </c>
+      <c r="M27" s="4">
+        <v>1833.26</v>
+      </c>
+      <c r="N27" s="4">
+        <v>214.68</v>
+      </c>
+      <c r="O27" s="4">
+        <v>7216.66</v>
+      </c>
+      <c r="P27" s="4">
+        <v>594.55</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>2601.27</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S27" s="4">
+        <v>24666.9</v>
+      </c>
+      <c r="T27" s="4">
+        <v>809.22</v>
+      </c>
+      <c r="U27" s="4">
+        <v>1479.44</v>
+      </c>
+      <c r="V27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="3"/>
+      <c r="AP27" s="3"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1.18</v>
+      </c>
+      <c r="D28" s="4">
+        <v>29.35</v>
+      </c>
+      <c r="E28" s="4">
+        <v>15.64</v>
+      </c>
+      <c r="F28" s="4">
+        <v>7.85</v>
+      </c>
+      <c r="G28" s="4">
+        <v>4.76</v>
+      </c>
+      <c r="H28" s="4">
+        <v>6.22</v>
+      </c>
+      <c r="I28" s="4">
+        <v>4.75</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L28" s="4">
+        <v>46.22</v>
+      </c>
+      <c r="M28" s="4">
+        <v>1.87</v>
+      </c>
+      <c r="N28" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="O28" s="4">
+        <v>7.35</v>
+      </c>
+      <c r="P28" s="4">
+        <v>0.61</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>2.65</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S28" s="4">
+        <v>25.14</v>
+      </c>
+      <c r="T28" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="U28" s="4">
+        <v>1.51</v>
+      </c>
+      <c r="V28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
+      <c r="AP28" s="3"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="4">
+        <v>578.05</v>
+      </c>
+      <c r="D29" s="4">
+        <v>282.3</v>
+      </c>
+      <c r="E29" s="4">
+        <v>273.99</v>
+      </c>
+      <c r="F29" s="4">
+        <v>335.01</v>
+      </c>
+      <c r="G29" s="4">
+        <v>359.51</v>
+      </c>
+      <c r="H29" s="4">
+        <v>265.32</v>
+      </c>
+      <c r="I29" s="4">
+        <v>424.13</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" s="4">
+        <v>263.01</v>
+      </c>
+      <c r="M29" s="4">
+        <v>458.32</v>
+      </c>
+      <c r="N29" s="4">
+        <v>214.68</v>
+      </c>
+      <c r="O29" s="4">
+        <v>343.65</v>
+      </c>
+      <c r="P29" s="4">
+        <v>297.27</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>371.61</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S29" s="4">
+        <v>312.24</v>
+      </c>
+      <c r="T29" s="4">
+        <v>269.74</v>
+      </c>
+      <c r="U29" s="4">
+        <v>295.89</v>
+      </c>
+      <c r="V29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3"/>
+      <c r="AN29" s="3"/>
+      <c r="AO29" s="3"/>
+      <c r="AP29" s="3"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1007.45</v>
+      </c>
+      <c r="D30" s="4">
+        <v>207.78</v>
+      </c>
+      <c r="E30" s="4">
+        <v>207.78</v>
+      </c>
+      <c r="F30" s="4">
+        <v>207.78</v>
+      </c>
+      <c r="G30" s="4">
+        <v>148.67</v>
+      </c>
+      <c r="H30" s="4">
+        <v>165.17</v>
+      </c>
+      <c r="I30" s="4">
+        <v>165.12</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L30" s="4">
+        <v>8.68</v>
+      </c>
+      <c r="M30" s="4">
+        <v>165.19</v>
+      </c>
+      <c r="N30" s="4">
+        <v>214.68</v>
+      </c>
+      <c r="O30" s="4">
+        <v>165.13</v>
+      </c>
+      <c r="P30" s="4">
+        <v>198.17</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>1007.45</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S30" s="4">
+        <v>445.94</v>
+      </c>
+      <c r="T30" s="4">
+        <v>462.46</v>
+      </c>
+      <c r="U30" s="4">
+        <v>207.78</v>
+      </c>
+      <c r="V30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="3"/>
+      <c r="AG30" s="3"/>
+      <c r="AH30" s="3"/>
+      <c r="AI30" s="3"/>
+      <c r="AJ30" s="3"/>
+      <c r="AK30" s="3"/>
+      <c r="AL30" s="3"/>
+      <c r="AM30" s="3"/>
+      <c r="AN30" s="3"/>
+      <c r="AO30" s="3"/>
+      <c r="AP30" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A24:B24"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -1713,13 +2431,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
@@ -1728,25 +2446,25 @@
         <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>18</v>
@@ -2178,482 +2896,1353 @@
         <v>0</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="3"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="3"/>
+      <c r="AP11" s="3"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="3"/>
+      <c r="AP12" s="3"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="4">
+        <v>19.0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="L13" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="N13" s="4">
+        <v>23.0</v>
+      </c>
+      <c r="O13" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R13" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3"/>
+      <c r="AM13" s="3"/>
+      <c r="AN13" s="3"/>
+      <c r="AO13" s="3"/>
+      <c r="AP13" s="3"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="4">
+        <v>28.0</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>59.0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="L14" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>72.0</v>
+      </c>
+      <c r="O14" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R14" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="3"/>
+      <c r="AL14" s="3"/>
+      <c r="AM14" s="3"/>
+      <c r="AN14" s="3"/>
+      <c r="AO14" s="3"/>
+      <c r="AP14" s="3"/>
+    </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="4">
+        <v>11235.07</v>
+      </c>
+      <c r="D15" s="4">
+        <v>792.94</v>
+      </c>
+      <c r="E15" s="4">
+        <v>495.83</v>
+      </c>
+      <c r="F15" s="4">
+        <v>14608.68</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1553.0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>5001.89</v>
+      </c>
+      <c r="I15" s="4">
+        <v>4682.25</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="4">
+        <v>396.72</v>
+      </c>
+      <c r="L15" s="4">
+        <v>4423.82</v>
+      </c>
+      <c r="M15" s="4">
+        <v>132.17</v>
+      </c>
+      <c r="N15" s="4">
+        <v>25567.58</v>
+      </c>
+      <c r="O15" s="4">
+        <v>924.98</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R15" s="4">
+        <v>132.17</v>
+      </c>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="3"/>
+      <c r="AL15" s="3"/>
+      <c r="AM15" s="3"/>
+      <c r="AN15" s="3"/>
+      <c r="AO15" s="3"/>
+      <c r="AP15" s="3"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="4">
+        <v>15.04</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1.06</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="F16" s="4">
+        <v>35.15</v>
+      </c>
+      <c r="G16" s="4">
+        <v>2.08</v>
+      </c>
+      <c r="H16" s="4">
+        <v>6.7</v>
+      </c>
+      <c r="I16" s="4">
+        <v>6.27</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0.53</v>
+      </c>
+      <c r="L16" s="4">
+        <v>5.92</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="N16" s="4">
+        <v>34.24</v>
+      </c>
+      <c r="O16" s="4">
+        <v>1.24</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R16" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="S16" s="5"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="3"/>
+      <c r="AL16" s="3"/>
+      <c r="AM16" s="3"/>
+      <c r="AN16" s="3"/>
+      <c r="AO16" s="3"/>
+      <c r="AP16" s="3"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="4">
+        <v>401.25</v>
+      </c>
+      <c r="D17" s="4">
+        <v>396.47</v>
+      </c>
+      <c r="E17" s="4">
+        <v>247.91</v>
+      </c>
+      <c r="F17" s="4">
+        <v>247.6</v>
+      </c>
+      <c r="G17" s="4">
+        <v>310.6</v>
+      </c>
+      <c r="H17" s="4">
+        <v>625.24</v>
+      </c>
+      <c r="I17" s="4">
+        <v>468.23</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="4">
+        <v>396.72</v>
+      </c>
+      <c r="L17" s="4">
+        <v>631.97</v>
+      </c>
+      <c r="M17" s="4">
+        <v>132.17</v>
+      </c>
+      <c r="N17" s="4">
+        <v>355.11</v>
+      </c>
+      <c r="O17" s="4">
+        <v>462.49</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R17" s="4">
+        <v>132.17</v>
+      </c>
+      <c r="S17" s="5"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3"/>
+      <c r="AL17" s="3"/>
+      <c r="AM17" s="3"/>
+      <c r="AN17" s="3"/>
+      <c r="AO17" s="3"/>
+      <c r="AP17" s="3"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="4">
+        <v>132.16</v>
+      </c>
+      <c r="D18" s="4">
+        <v>132.17</v>
+      </c>
+      <c r="E18" s="4">
+        <v>396.72</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1276.53</v>
+      </c>
+      <c r="G18" s="4">
+        <v>132.17</v>
+      </c>
+      <c r="H18" s="4">
+        <v>231.2</v>
+      </c>
+      <c r="I18" s="4">
+        <v>247.75</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="4">
+        <v>396.72</v>
+      </c>
+      <c r="L18" s="4">
+        <v>214.55</v>
+      </c>
+      <c r="M18" s="4">
+        <v>132.17</v>
+      </c>
+      <c r="N18" s="4">
+        <v>74.22</v>
+      </c>
+      <c r="O18" s="4">
+        <v>528.53</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R18" s="4">
+        <v>132.17</v>
+      </c>
+      <c r="S18" s="5"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="3"/>
+      <c r="AK18" s="3"/>
+      <c r="AL18" s="3"/>
+      <c r="AM18" s="3"/>
+      <c r="AN18" s="3"/>
+      <c r="AO18" s="3"/>
+      <c r="AP18" s="3"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="3"/>
+      <c r="AK19" s="3"/>
+      <c r="AL19" s="3"/>
+      <c r="AM19" s="3"/>
+      <c r="AN19" s="3"/>
+      <c r="AO19" s="3"/>
+      <c r="AP19" s="3"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3"/>
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3"/>
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="3"/>
+      <c r="AL20" s="3"/>
+      <c r="AM20" s="3"/>
+      <c r="AN20" s="3"/>
+      <c r="AO20" s="3"/>
+      <c r="AP20" s="3"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="5"/>
+      <c r="B21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M21" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N16" s="1" t="s">
+      <c r="N21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="O21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="P21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="Q21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="R21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="S16" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="S21" s="5"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="3"/>
+      <c r="AO21" s="3"/>
+      <c r="AP21" s="3"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S17" s="1"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="B23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="4">
+        <v>19.0</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H23" s="4">
         <v>2.0</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="I23" s="4">
         <v>0.0</v>
       </c>
-      <c r="F18" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="G18" s="1">
+      <c r="J23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N23" s="4">
+        <v>23.0</v>
+      </c>
+      <c r="O23" s="4">
         <v>0.0</v>
       </c>
-      <c r="H18" s="1">
+      <c r="P23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S23" s="5"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="3"/>
+      <c r="AO23" s="3"/>
+      <c r="AP23" s="3"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="4">
+        <v>28.0</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>59.0</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H24" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="I24" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N24" s="4">
+        <v>72.0</v>
+      </c>
+      <c r="O24" s="4">
         <v>2.0</v>
       </c>
-      <c r="I18" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N18" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="O18" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="F19" s="1">
-        <v>59.0</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="H19" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="I19" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N19" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="O19" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="P24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3"/>
+      <c r="AO24" s="3"/>
+      <c r="AP24" s="3"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="1">
+      <c r="B25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="4">
+        <v>11235.07</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="4">
+        <v>266.94</v>
+      </c>
+      <c r="F25" s="4">
+        <v>14608.68</v>
+      </c>
+      <c r="G25" s="4">
+        <v>266.94</v>
+      </c>
+      <c r="H25" s="4">
         <v>917.6</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="I25" s="4">
+        <v>366.98</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N25" s="4">
+        <v>25567.58</v>
+      </c>
+      <c r="O25" s="4">
+        <v>400.45</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
+      <c r="AP25" s="3"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="4">
+        <v>15.04</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="F26" s="4">
+        <v>35.15</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="H26" s="4">
+        <v>2.21</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N26" s="4">
+        <v>34.24</v>
+      </c>
+      <c r="O26" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
+      <c r="AO26" s="3"/>
+      <c r="AP26" s="3"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="4">
+        <v>401.25</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="4">
         <v>266.94</v>
       </c>
-      <c r="F20" s="1">
-        <v>14608.68</v>
-      </c>
-      <c r="G20" s="1">
+      <c r="F27" s="4">
+        <v>247.6</v>
+      </c>
+      <c r="G27" s="4">
         <v>266.94</v>
       </c>
-      <c r="H20" s="1">
-        <v>917.6</v>
-      </c>
-      <c r="I20" s="1">
+      <c r="H27" s="4">
+        <v>229.4</v>
+      </c>
+      <c r="I27" s="4">
         <v>366.98</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N20" s="1">
-        <v>3459.28</v>
-      </c>
-      <c r="O20" s="1">
-        <v>400.45</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="1">
-        <v>2.21</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0.64</v>
-      </c>
-      <c r="F21" s="1">
-        <v>35.15</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0.64</v>
-      </c>
-      <c r="H21" s="1">
-        <v>2.21</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0.88</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N21" s="1">
-        <v>8.32</v>
-      </c>
-      <c r="O21" s="1">
-        <v>0.96</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="1">
-        <v>229.4</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="J27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N27" s="4">
+        <v>355.11</v>
+      </c>
+      <c r="O27" s="4">
+        <v>200.22</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="3"/>
+      <c r="AP27" s="3"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="4">
+        <v>132.16</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="4">
         <v>266.94</v>
       </c>
-      <c r="F22" s="1">
-        <v>247.6</v>
-      </c>
-      <c r="G22" s="1">
+      <c r="F28" s="4">
+        <v>1276.53</v>
+      </c>
+      <c r="G28" s="4">
         <v>266.94</v>
       </c>
-      <c r="H22" s="1">
-        <v>229.4</v>
-      </c>
-      <c r="I22" s="1">
+      <c r="H28" s="4">
+        <v>150.18</v>
+      </c>
+      <c r="I28" s="4">
         <v>366.98</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N22" s="1">
-        <v>182.07</v>
-      </c>
-      <c r="O22" s="1">
-        <v>200.22</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="1">
-        <v>150.18</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="1">
-        <v>266.94</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1276.53</v>
-      </c>
-      <c r="G23" s="1">
-        <v>266.94</v>
-      </c>
-      <c r="H23" s="1">
-        <v>150.18</v>
-      </c>
-      <c r="I23" s="1">
-        <v>366.98</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N23" s="1">
-        <v>150.1</v>
-      </c>
-      <c r="O23" s="1">
+      <c r="J28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N28" s="4">
+        <v>74.22</v>
+      </c>
+      <c r="O28" s="4">
         <v>133.5</v>
       </c>
-      <c r="P23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="P28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
+      <c r="AP28" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A22:B22"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -2673,76 +4262,76 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>14</v>
@@ -2754,19 +4343,19 @@
         <v>18</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>20</v>
@@ -2778,22 +4367,22 @@
         <v>22</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AQ1" s="1" t="s">
         <v>0</v>
@@ -3716,7 +5305,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
@@ -3724,76 +5313,76 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z14" s="1" t="s">
         <v>14</v>
@@ -3805,19 +5394,19 @@
         <v>18</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AF14" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AH14" s="1" t="s">
         <v>20</v>
@@ -3829,22 +5418,22 @@
         <v>22</v>
       </c>
       <c r="AK14" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AL14" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AM14" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AN14" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AO14" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AP14" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AQ14" s="1" t="s">
         <v>0</v>
@@ -3852,40 +5441,1867 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>70</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>24</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N16" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S16" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="U16" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="X16" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM16" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AN16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP16" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AQ16" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>72</v>
+        <v>26</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N17" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>91.0</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R17" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="S17" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="T17" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="U17" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W17" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="X17" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>74.0</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM17" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AN17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP17" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AQ17" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>73</v>
+        <v>27</v>
+      </c>
+      <c r="B18" s="1">
+        <v>966.96</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="1">
+        <v>116.8</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="1">
+        <v>7432.35</v>
+      </c>
+      <c r="I18" s="1">
+        <v>2610.44</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="1">
+        <v>4821.04</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1234.62</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N18" s="1">
+        <v>784.07</v>
+      </c>
+      <c r="O18" s="1">
+        <v>19746.37</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R18" s="1">
+        <v>116.8</v>
+      </c>
+      <c r="S18" s="1">
+        <v>4321.26</v>
+      </c>
+      <c r="T18" s="1">
+        <v>884.24</v>
+      </c>
+      <c r="U18" s="1">
+        <v>1851.34</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W18" s="1">
+        <v>1234.62</v>
+      </c>
+      <c r="X18" s="1">
+        <v>750.73</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>2435.39</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>33034.41</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM18" s="1">
+        <v>300.27</v>
+      </c>
+      <c r="AN18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP18" s="1">
+        <v>884.24</v>
+      </c>
+      <c r="AQ18" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>74</v>
+        <v>28</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="1">
+        <v>7.36</v>
+      </c>
+      <c r="I19" s="1">
+        <v>2.59</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="1">
+        <v>4.78</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1.22</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="O19" s="1">
+        <v>19.57</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="S19" s="1">
+        <v>4.28</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="U19" s="1">
+        <v>1.83</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W19" s="1">
+        <v>1.22</v>
+      </c>
+      <c r="X19" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>2.41</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>32.73</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM19" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AN19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP19" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="AQ19" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>75</v>
+        <v>29</v>
+      </c>
+      <c r="B20" s="1">
+        <v>483.48</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="1">
+        <v>116.8</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="1">
+        <v>309.68</v>
+      </c>
+      <c r="I20" s="1">
+        <v>435.07</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="1">
+        <v>283.59</v>
+      </c>
+      <c r="L20" s="1">
+        <v>411.54</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20" s="1">
+        <v>261.36</v>
+      </c>
+      <c r="O20" s="1">
+        <v>216.99</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R20" s="1">
+        <v>116.8</v>
+      </c>
+      <c r="S20" s="1">
+        <v>270.08</v>
+      </c>
+      <c r="T20" s="1">
+        <v>884.24</v>
+      </c>
+      <c r="U20" s="1">
+        <v>617.11</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W20" s="1">
+        <v>411.54</v>
+      </c>
+      <c r="X20" s="1">
+        <v>250.24</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>487.08</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>446.41</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM20" s="1">
+        <v>300.27</v>
+      </c>
+      <c r="AN20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP20" s="1">
+        <v>884.24</v>
+      </c>
+      <c r="AQ20" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>76</v>
+        <v>30</v>
+      </c>
+      <c r="B21" s="1">
+        <v>499.78</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="1">
+        <v>116.8</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="1">
+        <v>150.22</v>
+      </c>
+      <c r="I21" s="1">
+        <v>467.32</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" s="1">
+        <v>499.78</v>
+      </c>
+      <c r="L21" s="1">
+        <v>200.18</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N21" s="1">
+        <v>300.27</v>
+      </c>
+      <c r="O21" s="1">
+        <v>559.1</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R21" s="1">
+        <v>116.8</v>
+      </c>
+      <c r="S21" s="1">
+        <v>183.5</v>
+      </c>
+      <c r="T21" s="1">
+        <v>884.24</v>
+      </c>
+      <c r="U21" s="1">
+        <v>467.32</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W21" s="1">
+        <v>200.18</v>
+      </c>
+      <c r="X21" s="1">
+        <v>183.5</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>817.55</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>300.37</v>
+      </c>
+      <c r="AC21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM21" s="1">
+        <v>300.27</v>
+      </c>
+      <c r="AN21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP21" s="1">
+        <v>884.24</v>
+      </c>
+      <c r="AQ21" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="X25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP25" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
+      <c r="AO26" s="3"/>
+      <c r="AP26" s="3"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H27" s="4">
+        <v>29.0</v>
+      </c>
+      <c r="I27" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="J27" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="K27" s="4">
+        <v>30.0</v>
+      </c>
+      <c r="L27" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="M27" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="N27" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="O27" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P27" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R27" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="S27" s="4">
+        <v>27.0</v>
+      </c>
+      <c r="T27" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="U27" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="V27" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="W27" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="X27" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="Y27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z27" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="AA27" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="AB27" s="4">
+        <v>23.0</v>
+      </c>
+      <c r="AC27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE27" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="AF27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AG27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH27" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AI27" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="AJ27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK27" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AL27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AN27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP27" s="4">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G28" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H28" s="4">
+        <v>112.0</v>
+      </c>
+      <c r="I28" s="4">
+        <v>22.0</v>
+      </c>
+      <c r="J28" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="K28" s="4">
+        <v>84.0</v>
+      </c>
+      <c r="L28" s="4">
+        <v>24.0</v>
+      </c>
+      <c r="M28" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="N28" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="O28" s="4">
+        <v>91.0</v>
+      </c>
+      <c r="P28" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R28" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="S28" s="4">
+        <v>64.0</v>
+      </c>
+      <c r="T28" s="4">
+        <v>24.0</v>
+      </c>
+      <c r="U28" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="V28" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="W28" s="4">
+        <v>18.0</v>
+      </c>
+      <c r="X28" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="Y28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z28" s="4">
+        <v>21.0</v>
+      </c>
+      <c r="AA28" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="AB28" s="4">
+        <v>61.0</v>
+      </c>
+      <c r="AC28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE28" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="AF28" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AG28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH28" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="AI28" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="AJ28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK28" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="AL28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM28" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AN28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP28" s="4">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="4">
+        <v>3303.59</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="4">
+        <v>200.25</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="4">
+        <v>2944.79</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1167.87</v>
+      </c>
+      <c r="H29" s="4">
+        <v>46586.0</v>
+      </c>
+      <c r="I29" s="4">
+        <v>11488.1</v>
+      </c>
+      <c r="J29" s="4">
+        <v>633.95</v>
+      </c>
+      <c r="K29" s="4">
+        <v>35412.62</v>
+      </c>
+      <c r="L29" s="4">
+        <v>10778.18</v>
+      </c>
+      <c r="M29" s="4">
+        <v>5939.7</v>
+      </c>
+      <c r="N29" s="4">
+        <v>5939.57</v>
+      </c>
+      <c r="O29" s="4">
+        <v>19746.37</v>
+      </c>
+      <c r="P29" s="4">
+        <v>1167.87</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R29" s="4">
+        <v>2944.79</v>
+      </c>
+      <c r="S29" s="4">
+        <v>26936.95</v>
+      </c>
+      <c r="T29" s="4">
+        <v>12546.44</v>
+      </c>
+      <c r="U29" s="4">
+        <v>5080.62</v>
+      </c>
+      <c r="V29" s="4">
+        <v>4087.42</v>
+      </c>
+      <c r="W29" s="4">
+        <v>8258.83</v>
+      </c>
+      <c r="X29" s="4">
+        <v>4054.68</v>
+      </c>
+      <c r="Y29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z29" s="4">
+        <v>10455.85</v>
+      </c>
+      <c r="AA29" s="4">
+        <v>1735.36</v>
+      </c>
+      <c r="AB29" s="4">
+        <v>24870.33</v>
+      </c>
+      <c r="AC29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE29" s="4">
+        <v>2944.79</v>
+      </c>
+      <c r="AF29" s="4">
+        <v>1501.62</v>
+      </c>
+      <c r="AG29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH29" s="4">
+        <v>467.14</v>
+      </c>
+      <c r="AI29" s="4">
+        <v>2685.89</v>
+      </c>
+      <c r="AJ29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK29" s="4">
+        <v>1167.87</v>
+      </c>
+      <c r="AL29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM29" s="4">
+        <v>316.76</v>
+      </c>
+      <c r="AN29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP29" s="4">
+        <v>5489.07</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="4">
+        <v>2.74</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="4">
+        <v>2.45</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="H30" s="4">
+        <v>38.7</v>
+      </c>
+      <c r="I30" s="4">
+        <v>9.54</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0.53</v>
+      </c>
+      <c r="K30" s="4">
+        <v>29.42</v>
+      </c>
+      <c r="L30" s="4">
+        <v>8.95</v>
+      </c>
+      <c r="M30" s="4">
+        <v>4.93</v>
+      </c>
+      <c r="N30" s="4">
+        <v>4.93</v>
+      </c>
+      <c r="O30" s="4">
+        <v>19.57</v>
+      </c>
+      <c r="P30" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R30" s="4">
+        <v>2.45</v>
+      </c>
+      <c r="S30" s="4">
+        <v>22.38</v>
+      </c>
+      <c r="T30" s="4">
+        <v>10.42</v>
+      </c>
+      <c r="U30" s="4">
+        <v>4.22</v>
+      </c>
+      <c r="V30" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="W30" s="4">
+        <v>6.86</v>
+      </c>
+      <c r="X30" s="4">
+        <v>3.37</v>
+      </c>
+      <c r="Y30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z30" s="4">
+        <v>8.69</v>
+      </c>
+      <c r="AA30" s="4">
+        <v>1.44</v>
+      </c>
+      <c r="AB30" s="4">
+        <v>20.66</v>
+      </c>
+      <c r="AC30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE30" s="4">
+        <v>2.45</v>
+      </c>
+      <c r="AF30" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="AG30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH30" s="4">
+        <v>0.39</v>
+      </c>
+      <c r="AI30" s="4">
+        <v>2.23</v>
+      </c>
+      <c r="AJ30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK30" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="AL30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM30" s="4">
+        <v>0.26</v>
+      </c>
+      <c r="AN30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP30" s="4">
+        <v>4.56</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="4">
+        <v>660.72</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="4">
+        <v>200.25</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="4">
+        <v>736.2</v>
+      </c>
+      <c r="G31" s="4">
+        <v>583.94</v>
+      </c>
+      <c r="H31" s="4">
+        <v>415.95</v>
+      </c>
+      <c r="I31" s="4">
+        <v>522.19</v>
+      </c>
+      <c r="J31" s="4">
+        <v>316.98</v>
+      </c>
+      <c r="K31" s="4">
+        <v>421.58</v>
+      </c>
+      <c r="L31" s="4">
+        <v>449.09</v>
+      </c>
+      <c r="M31" s="4">
+        <v>456.9</v>
+      </c>
+      <c r="N31" s="4">
+        <v>539.96</v>
+      </c>
+      <c r="O31" s="4">
+        <v>216.99</v>
+      </c>
+      <c r="P31" s="4">
+        <v>583.94</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R31" s="4">
+        <v>736.2</v>
+      </c>
+      <c r="S31" s="4">
+        <v>420.89</v>
+      </c>
+      <c r="T31" s="4">
+        <v>522.77</v>
+      </c>
+      <c r="U31" s="4">
+        <v>508.06</v>
+      </c>
+      <c r="V31" s="4">
+        <v>454.16</v>
+      </c>
+      <c r="W31" s="4">
+        <v>458.82</v>
+      </c>
+      <c r="X31" s="4">
+        <v>675.78</v>
+      </c>
+      <c r="Y31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z31" s="4">
+        <v>497.9</v>
+      </c>
+      <c r="AA31" s="4">
+        <v>578.45</v>
+      </c>
+      <c r="AB31" s="4">
+        <v>407.71</v>
+      </c>
+      <c r="AC31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE31" s="4">
+        <v>736.2</v>
+      </c>
+      <c r="AF31" s="4">
+        <v>1501.62</v>
+      </c>
+      <c r="AG31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH31" s="4">
+        <v>233.57</v>
+      </c>
+      <c r="AI31" s="4">
+        <v>447.65</v>
+      </c>
+      <c r="AJ31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK31" s="4">
+        <v>583.94</v>
+      </c>
+      <c r="AL31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM31" s="4">
+        <v>316.76</v>
+      </c>
+      <c r="AN31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP31" s="4">
+        <v>609.9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="4">
+        <v>233.56</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="4">
+        <v>200.25</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="4">
+        <v>250.29</v>
+      </c>
+      <c r="G32" s="4">
+        <v>700.76</v>
+      </c>
+      <c r="H32" s="4">
+        <v>1101.64</v>
+      </c>
+      <c r="I32" s="4">
+        <v>417.62</v>
+      </c>
+      <c r="J32" s="4">
+        <v>266.95</v>
+      </c>
+      <c r="K32" s="4">
+        <v>467.26</v>
+      </c>
+      <c r="L32" s="4">
+        <v>717.43</v>
+      </c>
+      <c r="M32" s="4">
+        <v>550.57</v>
+      </c>
+      <c r="N32" s="4">
+        <v>333.69</v>
+      </c>
+      <c r="O32" s="4">
+        <v>559.1</v>
+      </c>
+      <c r="P32" s="4">
+        <v>700.76</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R32" s="4">
+        <v>250.29</v>
+      </c>
+      <c r="S32" s="4">
+        <v>250.29</v>
+      </c>
+      <c r="T32" s="4">
+        <v>467.26</v>
+      </c>
+      <c r="U32" s="4">
+        <v>467.26</v>
+      </c>
+      <c r="V32" s="4">
+        <v>467.19</v>
+      </c>
+      <c r="W32" s="4">
+        <v>717.43</v>
+      </c>
+      <c r="X32" s="4">
+        <v>333.69</v>
+      </c>
+      <c r="Y32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z32" s="4">
+        <v>1101.64</v>
+      </c>
+      <c r="AA32" s="4">
+        <v>517.19</v>
+      </c>
+      <c r="AB32" s="4">
+        <v>517.19</v>
+      </c>
+      <c r="AC32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE32" s="4">
+        <v>250.29</v>
+      </c>
+      <c r="AF32" s="4">
+        <v>1501.62</v>
+      </c>
+      <c r="AG32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH32" s="4">
+        <v>283.62</v>
+      </c>
+      <c r="AI32" s="4">
+        <v>233.56</v>
+      </c>
+      <c r="AJ32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK32" s="4">
+        <v>700.76</v>
+      </c>
+      <c r="AL32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM32" s="4">
+        <v>316.76</v>
+      </c>
+      <c r="AN32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP32" s="4">
+        <v>717.43</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A26:B26"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>